--- a/results/mod1.edu.f.eff.MN.xlsx
+++ b/results/mod1.edu.f.eff.MN.xlsx
@@ -440,25 +440,25 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0138503469515217</v>
+        <v>-0.0138506738886736</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00553845957991377</v>
+        <v>0.00553798766703643</v>
       </c>
       <c r="E2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0247055282579836</v>
+        <v>-0.024704930262892</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.00299516564505992</v>
+        <v>-0.00299641751445518</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.50075797280394</v>
+        <v>-2.50103010722044</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0123927838640708</v>
+        <v>0.0123832650593498</v>
       </c>
     </row>
     <row r="3">
@@ -469,25 +469,25 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00642822894320878</v>
+        <v>0.00642644416364358</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00866945461288575</v>
+        <v>0.00866914233386145</v>
       </c>
       <c r="E3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0105635898636519</v>
+        <v>-0.0105647625875764</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0234200477500695</v>
+        <v>0.0234176509148635</v>
       </c>
       <c r="H3" t="n">
-        <v>0.74148020034089</v>
+        <v>0.741301032576435</v>
       </c>
       <c r="I3" t="n">
-        <v>0.458402332530881</v>
+        <v>0.458510935768803</v>
       </c>
     </row>
     <row r="4">
@@ -498,25 +498,25 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00516120409828057</v>
+        <v>0.00516084299623837</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00586020868904318</v>
+        <v>0.00586010908446519</v>
       </c>
       <c r="E4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.00632459387413274</v>
+        <v>-0.00632475975478938</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0166470020706939</v>
+        <v>0.0166464457472661</v>
       </c>
       <c r="H4" t="n">
-        <v>0.880720187990995</v>
+        <v>0.880673537275862</v>
       </c>
       <c r="I4" t="n">
-        <v>0.378469287232167</v>
+        <v>0.378494543728985</v>
       </c>
     </row>
     <row r="5">
@@ -527,25 +527,25 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00619455902368457</v>
+        <v>0.0061947801175117</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00542852802507706</v>
+        <v>0.00542842342415736</v>
       </c>
       <c r="E5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.00444516039453281</v>
+        <v>-0.00444473428667031</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0168342784419019</v>
+        <v>0.0168342945216937</v>
       </c>
       <c r="H5" t="n">
-        <v>1.14111210167265</v>
+        <v>1.1411748188146</v>
       </c>
       <c r="I5" t="n">
-        <v>0.253823275910349</v>
+        <v>0.253797181026981</v>
       </c>
     </row>
     <row r="6">
@@ -556,25 +556,25 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.000368632144847269</v>
+        <v>-0.000367592720576753</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00584455825343214</v>
+        <v>0.00584454707777754</v>
       </c>
       <c r="E6" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0118237558271206</v>
+        <v>-0.0118226944989696</v>
       </c>
       <c r="G6" t="n">
-        <v>0.011086491537426</v>
+        <v>0.011087509057816</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0630727129173184</v>
+        <v>-0.062894988385744</v>
       </c>
       <c r="I6" t="n">
-        <v>0.949708602960833</v>
+        <v>0.949850125634115</v>
       </c>
     </row>
     <row r="7">
@@ -585,25 +585,25 @@
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00158769856481652</v>
+        <v>0.00158822079333996</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00594525991337048</v>
+        <v>0.00594523276881268</v>
       </c>
       <c r="E7" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0100647967441193</v>
+        <v>-0.0100642213132402</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0132401938737524</v>
+        <v>0.0132406628999202</v>
       </c>
       <c r="H7" t="n">
-        <v>0.267052843433455</v>
+        <v>0.267141902613368</v>
       </c>
       <c r="I7" t="n">
-        <v>0.789428474826079</v>
+        <v>0.789359905915373</v>
       </c>
     </row>
     <row r="8">
@@ -614,25 +614,25 @@
         <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.00515271153362144</v>
+        <v>-0.00515202146148327</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00614580278406704</v>
+        <v>0.00614574654897834</v>
       </c>
       <c r="E8" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0171982636464788</v>
+        <v>-0.0171974633555921</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00689284057923596</v>
+        <v>0.0068934204326256</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.838411467901283</v>
+        <v>-0.838306855062179</v>
       </c>
       <c r="I8" t="n">
-        <v>0.401799650935225</v>
+        <v>0.401858386880455</v>
       </c>
     </row>
     <row r="9">
@@ -643,25 +643,25 @@
         <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0105715417850761</v>
+        <v>0.010572455740884</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00352617552811789</v>
+        <v>0.00352462584295996</v>
       </c>
       <c r="E9" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00366036474679848</v>
+        <v>0.0036643160297033</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0174827188233536</v>
+        <v>0.0174805954520646</v>
       </c>
       <c r="H9" t="n">
-        <v>2.99801915723652</v>
+        <v>2.99959661307064</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00271740591316579</v>
+        <v>0.00270337372694528</v>
       </c>
     </row>
     <row r="10">
@@ -672,25 +672,25 @@
         <v>17</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.00755902785378831</v>
+        <v>-0.00755952985721908</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00215662878896061</v>
+        <v>0.00215521079833557</v>
       </c>
       <c r="E10" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0117859426081733</v>
+        <v>-0.0117836654010486</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.00333211309940329</v>
+        <v>-0.00333539431338956</v>
       </c>
       <c r="H10" t="n">
-        <v>-3.50502037832455</v>
+        <v>-3.50755938261686</v>
       </c>
       <c r="I10" t="n">
-        <v>0.000456572334335689</v>
+        <v>0.000452237408116399</v>
       </c>
     </row>
     <row r="11">
@@ -701,25 +701,25 @@
         <v>17</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0018888952146984</v>
+        <v>-0.00188907517438466</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00178300552603904</v>
+        <v>0.00178298516116261</v>
       </c>
       <c r="E11" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.00538352182997082</v>
+        <v>-0.00538366187523273</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00160573140057401</v>
+        <v>0.0016055115264634</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.05938831210164</v>
+        <v>-1.05950134388829</v>
       </c>
       <c r="I11" t="n">
-        <v>0.289422970389937</v>
+        <v>0.28937151752974</v>
       </c>
     </row>
     <row r="12">
@@ -730,25 +730,25 @@
         <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.00199622266836319</v>
+        <v>-0.00199631413285626</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00156753901578481</v>
+        <v>0.00156747503052996</v>
       </c>
       <c r="E12" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.00506854268366279</v>
+        <v>-0.0050685087393608</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0010760973469364</v>
+        <v>0.00107588047364827</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.2734755870582</v>
+        <v>-1.27358592256575</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2028493301532</v>
+        <v>0.202810203881637</v>
       </c>
     </row>
     <row r="13">
@@ -759,25 +759,25 @@
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.00330459784335554</v>
+        <v>-0.00330493735309964</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00171108150324766</v>
+        <v>0.00171078682303171</v>
       </c>
       <c r="E13" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0066582559643336</v>
+        <v>-0.00665801791146749</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0000490602776225266</v>
+        <v>0.0000481432052682113</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.93129189760006</v>
+        <v>-1.93182301184838</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0534469648146297</v>
+        <v>0.053381354774565</v>
       </c>
     </row>
     <row r="14">
@@ -788,25 +788,25 @@
         <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00325847027615448</v>
+        <v>0.00325859218243429</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00224318938495021</v>
+        <v>0.00224302079082287</v>
       </c>
       <c r="E14" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.00113810012885048</v>
+        <v>-0.00113764778415309</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00765504068115943</v>
+        <v>0.00765483214902167</v>
       </c>
       <c r="H14" t="n">
-        <v>1.45260596274924</v>
+        <v>1.45276949539056</v>
       </c>
       <c r="I14" t="n">
-        <v>0.146333189561536</v>
+        <v>0.146287764206005</v>
       </c>
     </row>
     <row r="15">
@@ -817,25 +817,25 @@
         <v>17</v>
       </c>
       <c r="C15" t="n">
-        <v>0.000918731518974908</v>
+        <v>0.000918808594241397</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00203941098099343</v>
+        <v>0.00203949796951555</v>
       </c>
       <c r="E15" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.00307844055344772</v>
+        <v>-0.00307853397255164</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00491590359139754</v>
+        <v>0.00491615116103443</v>
       </c>
       <c r="H15" t="n">
-        <v>0.450488659489015</v>
+        <v>0.450507236572365</v>
       </c>
       <c r="I15" t="n">
-        <v>0.652358129484812</v>
+        <v>0.652344737408797</v>
       </c>
     </row>
     <row r="16">
@@ -846,25 +846,25 @@
         <v>18</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0409618140418787</v>
+        <v>0.0409611068617237</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00767416736230434</v>
+        <v>0.00767252002257642</v>
       </c>
       <c r="E16" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0259207224004295</v>
+        <v>0.0259232439468115</v>
       </c>
       <c r="G16" t="n">
-        <v>0.056002905683328</v>
+        <v>0.0559989697766359</v>
       </c>
       <c r="H16" t="n">
-        <v>5.33762323754939</v>
+        <v>5.33867708929993</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0000000941728921381962</v>
+        <v>0.0000000936272278340257</v>
       </c>
     </row>
     <row r="17">
@@ -875,25 +875,25 @@
         <v>18</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0547312695555776</v>
+        <v>-0.0547311708151475</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00783691060782686</v>
+        <v>0.00783354675969832</v>
       </c>
       <c r="E17" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0700913320969782</v>
+        <v>-0.0700846403353667</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0393712070141771</v>
+        <v>-0.0393777012949284</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.98378127484529</v>
+        <v>-6.98676761549775</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00000000000287339302439906</v>
+        <v>0.00000000000281291580460615</v>
       </c>
     </row>
     <row r="18">
@@ -904,25 +904,25 @@
         <v>18</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0167770379548883</v>
+        <v>-0.0167772938481893</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00550510343740809</v>
+        <v>0.00550468070344909</v>
       </c>
       <c r="E18" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0275668424233758</v>
+        <v>-0.0275662697733421</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.00598723348640084</v>
+        <v>-0.00598831792303643</v>
       </c>
       <c r="H18" t="n">
-        <v>-3.04754272933104</v>
+        <v>-3.0478232529776</v>
       </c>
       <c r="I18" t="n">
-        <v>0.00230720721430563</v>
+        <v>0.00230505460466997</v>
       </c>
     </row>
     <row r="19">
@@ -933,25 +933,25 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.000649108891710294</v>
+        <v>-0.000648548238984647</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00483390334932596</v>
+        <v>0.00483385998740346</v>
       </c>
       <c r="E19" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0101233853611367</v>
+        <v>-0.0101227397206047</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00882516757771613</v>
+        <v>0.00882564324263538</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.134282554863412</v>
+        <v>-0.134167774961355</v>
       </c>
       <c r="I19" t="n">
-        <v>0.893179147501528</v>
+        <v>0.893269907337146</v>
       </c>
     </row>
     <row r="20">
@@ -962,25 +962,25 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.00331371398736751</v>
+        <v>-0.00331331409228269</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00625609846884691</v>
+        <v>0.00625601796670915</v>
       </c>
       <c r="E20" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0155754416700436</v>
+        <v>-0.0155748839936681</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00894801369530861</v>
+        <v>0.00894825580910274</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.529677402596617</v>
+        <v>-0.529620296794894</v>
       </c>
       <c r="I20" t="n">
-        <v>0.59633561812146</v>
+        <v>0.596375218964745</v>
       </c>
     </row>
     <row r="21">
@@ -991,25 +991,25 @@
         <v>18</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0182440414997392</v>
+        <v>0.0182442403601423</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0062461325061857</v>
+        <v>0.00624564781253576</v>
       </c>
       <c r="E21" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00600184674495036</v>
+        <v>0.00600299558745083</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0304862362545281</v>
+        <v>0.0304854851328337</v>
       </c>
       <c r="H21" t="n">
-        <v>2.92085406156077</v>
+        <v>2.9211125743472</v>
       </c>
       <c r="I21" t="n">
-        <v>0.00349073301868673</v>
+        <v>0.00348783773802576</v>
       </c>
     </row>
     <row r="22">
@@ -1020,25 +1020,25 @@
         <v>18</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0162652748479258</v>
+        <v>0.0162649797727381</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0074709280385342</v>
+        <v>0.00747053778626443</v>
       </c>
       <c r="E22" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00162252496130833</v>
+        <v>0.00162299476651427</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0309080247345433</v>
+        <v>0.030906964778962</v>
       </c>
       <c r="H22" t="n">
-        <v>2.17714248672071</v>
+        <v>2.17721671961066</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0294699378903923</v>
+        <v>0.029464401401927</v>
       </c>
     </row>
     <row r="23">
@@ -1049,25 +1049,25 @@
         <v>19</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.037683008875433</v>
+        <v>-0.0376828887139341</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00908651421295568</v>
+        <v>0.00908487956761805</v>
       </c>
       <c r="E23" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.0554922494778375</v>
+        <v>-0.0554889254703493</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.0198737682730286</v>
+        <v>-0.0198768519575189</v>
       </c>
       <c r="H23" t="n">
-        <v>-4.14713585345017</v>
+        <v>-4.14786882241677</v>
       </c>
       <c r="I23" t="n">
-        <v>0.000033666031791789</v>
+        <v>0.0000335584577005588</v>
       </c>
     </row>
     <row r="24">
@@ -1078,25 +1078,25 @@
         <v>19</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0558620684661571</v>
+        <v>0.055864256508723</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0109758778840943</v>
+        <v>0.0109735453859492</v>
       </c>
       <c r="E24" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0343497431146225</v>
+        <v>0.0343565027695469</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0773743938176917</v>
+        <v>0.0773720102478991</v>
       </c>
       <c r="H24" t="n">
-        <v>5.08953079253091</v>
+        <v>5.09081199775717</v>
       </c>
       <c r="I24" t="n">
-        <v>0.000000358950570907917</v>
+        <v>0.000000356533395404919</v>
       </c>
     </row>
     <row r="25">
@@ -1107,25 +1107,25 @@
         <v>19</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0135047290713062</v>
+        <v>0.0135055260263355</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0075398343146629</v>
+        <v>0.00753953665912767</v>
       </c>
       <c r="E25" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.00127307463483232</v>
+        <v>-0.00127169428567412</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0282825327774447</v>
+        <v>0.0282827463383452</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79111748451066</v>
+        <v>1.79129390000183</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0732744439351302</v>
+        <v>0.0732461445043029</v>
       </c>
     </row>
     <row r="26">
@@ -1136,25 +1136,25 @@
         <v>19</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.00354922746361107</v>
+        <v>-0.00354991774567079</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0067897982401881</v>
+        <v>0.00678974080174031</v>
       </c>
       <c r="E26" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.0168569874766732</v>
+        <v>-0.0168575651814439</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00975853254945104</v>
+        <v>0.00975772969010234</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.522729444684168</v>
+        <v>-0.522835532213673</v>
       </c>
       <c r="I26" t="n">
-        <v>0.601162544778299</v>
+        <v>0.601088710552722</v>
       </c>
     </row>
     <row r="27">
@@ -1165,25 +1165,25 @@
         <v>19</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00698694397557027</v>
+        <v>0.00698584416595908</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00809664783745959</v>
+        <v>0.00809654597091719</v>
       </c>
       <c r="E27" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.00888219418135463</v>
+        <v>-0.00888309433621149</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0228560821324952</v>
+        <v>0.0228547826681297</v>
       </c>
       <c r="H27" t="n">
-        <v>0.86294280248238</v>
+        <v>0.862817822692819</v>
       </c>
       <c r="I27" t="n">
-        <v>0.388168915701086</v>
+        <v>0.388237638394503</v>
       </c>
     </row>
     <row r="28">
@@ -1194,25 +1194,25 @@
         <v>19</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.0230902103407103</v>
+        <v>-0.0230910533359165</v>
       </c>
       <c r="D28" t="n">
-        <v>0.00809314014054337</v>
+        <v>0.00809279098082522</v>
       </c>
       <c r="E28" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.0389524735380107</v>
+        <v>-0.0389526321927445</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.00722794714340985</v>
+        <v>-0.00722947447908845</v>
       </c>
       <c r="H28" t="n">
-        <v>-2.8530594972695</v>
+        <v>-2.85328675739032</v>
       </c>
       <c r="I28" t="n">
-        <v>0.00433005136959281</v>
+        <v>0.00432695569611728</v>
       </c>
     </row>
     <row r="29">
@@ -1223,25 +1223,25 @@
         <v>19</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.0120312948332793</v>
+        <v>-0.0120317669054962</v>
       </c>
       <c r="D29" t="n">
-        <v>0.00913996996884242</v>
+        <v>0.00913969094499893</v>
       </c>
       <c r="E29" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.0299453067919882</v>
+        <v>-0.029945231987521</v>
       </c>
       <c r="G29" t="n">
-        <v>0.00588271712542948</v>
+        <v>0.00588169817652852</v>
       </c>
       <c r="H29" t="n">
-        <v>-1.31633855190917</v>
+        <v>-1.3164303889378</v>
       </c>
       <c r="I29" t="n">
-        <v>0.188060436785221</v>
+        <v>0.188029628298685</v>
       </c>
     </row>
   </sheetData>
